--- a/biology/Écologie/Plateau_de_broussailles_du_Colorado/Plateau_de_broussailles_du_Colorado.xlsx
+++ b/biology/Écologie/Plateau_de_broussailles_du_Colorado/Plateau_de_broussailles_du_Colorado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'écorégion appelée par le WWF Colorado Plateau shrublands soit littéralement depuis l'anglais Plateau de broussailles du Colorado est une zone semi-aride au centre de l'Amérique du Nord. Cette écorégion occupe 326 400 km2 et 90 % de sa surface se situe sur le bassin versant du Colorado. Le plateau, lentement incliné vers le nord, est entrecoupé de profonds canyons issus de l'érosion de l'eau. Cette écorégion est menacée par le phénomène de fragmentation écopaysagère.
 Plusieurs parcs et zones protégées s'y trouvent :
@@ -523,7 +535,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) l'écozone sur le site du WWF</t>
         </is>
